--- a/outputs/filtered_movies.xlsx
+++ b/outputs/filtered_movies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,33 +498,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>One Hundred and One Dalmatians</t>
+          <t>2001: A Space Odyssey</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>One Hundred and One Dalmatians</t>
+          <t>2001: A Space Odyssey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>186372</v>
+        <v>738293</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>XWW</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1961</v>
+        <v>1968</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -547,40 +547,40 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>tt0055254</t>
+          <t>tt0062622</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The Sword in the Stone</t>
+          <t>THX 1138</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Sword in the Stone</t>
+          <t>THX 1138</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Drama,Sci-Fi,Thriller</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="F3" t="n">
-        <v>108762</v>
+        <v>55570</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1963</v>
+        <v>1971</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -603,40 +603,40 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>tt0057546</t>
+          <t>tt0066434</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The Aristocats</t>
+          <t>A Clockwork Orange</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The AristoCats</t>
+          <t>A Clockwork Orange</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Crime,Sci-Fi</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>7.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>117703</v>
+        <v>898263</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>XWW</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -659,40 +659,40 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>tt0065421</t>
+          <t>tt0066921</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Robin Hood</t>
+          <t>Solaris</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Robin Hood</t>
+          <t>Solyaris</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Drama,Mystery,Sci-Fi</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="F5" t="n">
-        <v>142230</v>
+        <v>100331</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -715,40 +715,40 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>tt0070608</t>
+          <t>tt0069293</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Rescuers</t>
+          <t>Westworld</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The Rescuers</t>
+          <t>Westworld</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Action,Drama,Sci-Fi</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>6.9</v>
       </c>
       <c r="F6" t="n">
-        <v>71503</v>
+        <v>64229</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1977</v>
+        <v>1973</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -771,40 +771,40 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>tt0076618</t>
+          <t>tt0070909</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nausicaä of the Valley of the Wind</t>
+          <t>Logan's Run</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kaze no tani no Naushika</t>
+          <t>Logan's Run</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Sci-Fi</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="F7" t="n">
-        <v>187282</v>
+        <v>62417</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1984</v>
+        <v>1976</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -827,40 +827,40 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>tt0087544</t>
+          <t>tt0074812</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>An American Tail</t>
+          <t>Close Encounters of the Third Kind</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>An American Tail</t>
+          <t>Close Encounters of the Third Kind</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Drama,Sci-Fi</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="F8" t="n">
-        <v>59222</v>
+        <v>222080</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>JM</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1986</v>
+        <v>1977</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -883,40 +883,40 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>tt0090633</t>
+          <t>tt0075860</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>The Great Mouse Detective</t>
+          <t>Invasion of the Body Snatchers</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Great Mouse Detective</t>
+          <t>Invasion of the Body Snatchers</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Family</t>
+          <t>Horror,Sci-Fi</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>55760</v>
+        <v>74330</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>XWW</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1986</v>
+        <v>1978</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
@@ -939,40 +939,40 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>tt0091149</t>
+          <t>tt0077745</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Castle in the Sky</t>
+          <t>Superman</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tenkû no shiro Rapyuta</t>
+          <t>Superman</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Family</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="F10" t="n">
-        <v>187405</v>
+        <v>191743</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>XWW</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1986</v>
+        <v>1978</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -995,36 +995,36 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>tt0092067</t>
+          <t>tt0078346</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Akira</t>
+          <t>Mad Max</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Akira</t>
+          <t>Mad Max</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Animation,Drama,Fantasy</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="F11" t="n">
-        <v>211215</v>
+        <v>235053</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1988</v>
+        <v>1979</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -1051,40 +1051,40 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>tt0094625</t>
+          <t>tt0079501</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Grave of the Fireflies</t>
+          <t>Stalker</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hotaru no haka</t>
+          <t>Stalker</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>162</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Animation,Drama,War</t>
+          <t>Drama,Sci-Fi</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>330797</v>
+        <v>148353</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>1988</v>
+        <v>1979</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
@@ -1107,40 +1107,40 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>tt0095327</t>
+          <t>tt0079944</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>The Land Before Time</t>
+          <t>Flash Gordon</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The Land Before Time</t>
+          <t>Flash Gordon</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Drama</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="F13" t="n">
-        <v>101352</v>
+        <v>63001</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
@@ -1163,40 +1163,40 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>tt0095489</t>
+          <t>tt0080745</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>My Neighbor Totoro</t>
+          <t>Scanners</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tonari no Totoro</t>
+          <t>Scanners</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Animation,Comedy,Family</t>
+          <t>Horror,Sci-Fi,Thriller</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.1</v>
+        <v>6.7</v>
       </c>
       <c r="F14" t="n">
-        <v>395176</v>
+        <v>63605</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1988</v>
+        <v>1981</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
@@ -1219,40 +1219,40 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>tt0096283</t>
+          <t>tt0081455</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Who Framed Roger Rabbit</t>
+          <t>Superman II</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Who Framed Roger Rabbit</t>
+          <t>Superman II</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="F15" t="n">
-        <v>221917</v>
+        <v>116801</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1261,7 +1261,7 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1988</v>
+        <v>1980</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
@@ -1275,40 +1275,40 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>tt0096438</t>
+          <t>tt0081573</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kiki's Delivery Service</t>
+          <t>Escape from New York</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Majo no takkyûbin</t>
+          <t>Escape from New York</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Animation,Family,Fantasy</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="F16" t="n">
-        <v>172474</v>
+        <v>162336</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>XWW</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1989</v>
+        <v>1981</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
@@ -1331,40 +1331,40 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>tt0097814</t>
+          <t>tt0082340</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Porco Rosso</t>
+          <t>The Road Warrior</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kurenai no buta</t>
+          <t>Mad Max 2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="F17" t="n">
-        <v>106254</v>
+        <v>204771</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>XEU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1992</v>
+        <v>1981</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
@@ -1387,40 +1387,40 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>tt0104652</t>
+          <t>tt0082694</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Batman: Mask of the Phantasm</t>
+          <t>The Thing</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Batman: Mask of the Phantasm</t>
+          <t>The Thing</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Action,Adventure,Animation</t>
+          <t>Horror,Mystery,Sci-Fi</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>59017</v>
+        <v>485070</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1429,7 +1429,7 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1993</v>
+        <v>1982</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
@@ -1443,40 +1443,40 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>tt0106364</t>
+          <t>tt0084787</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>The Nightmare Before Christmas</t>
+          <t>Tron</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The Nightmare Before Christmas</t>
+          <t>Tron</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Animation,Family,Fantasy</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="F19" t="n">
-        <v>387919</v>
+        <v>131700</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1485,7 +1485,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1993</v>
+        <v>1982</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
@@ -1499,40 +1499,40 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>tt0107688</t>
+          <t>tt0084827</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A Goofy Movie</t>
+          <t>The Dead Zone</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A Goofy Movie</t>
+          <t>The Dead Zone</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Drama,Horror,Sci-Fi</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="F20" t="n">
-        <v>64864</v>
+        <v>79618</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1995</v>
+        <v>1983</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1555,40 +1555,40 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>tt0113198</t>
+          <t>tt0085407</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Whisper of the Heart</t>
+          <t>Videodrome</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mimi wo sumaseba</t>
+          <t>Videodrome</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Animation,Drama,Family</t>
+          <t>Horror,Sci-Fi,Thriller</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="F21" t="n">
-        <v>76001</v>
+        <v>106428</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>XWW</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1597,7 +1597,7 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1995</v>
+        <v>1983</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1611,40 +1611,40 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>tt0113824</t>
+          <t>tt0086541</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Beavis and Butt-Head Do America</t>
+          <t>WarGames</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Beavis and Butt-Head Do America</t>
+          <t>WarGames</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Action,Drama,Sci-Fi</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="F22" t="n">
-        <v>61177</v>
+        <v>114045</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>1996</v>
+        <v>1983</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1667,40 +1667,40 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>tt0115641</t>
+          <t>tt0086567</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Anastasia</t>
+          <t>2010: The Year We Make Contact</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Anastasia</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Drama</t>
+          <t>Adventure,Mystery,Sci-Fi</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="F23" t="n">
-        <v>139174</v>
+        <v>58581</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>EG</t>
+          <t>XWW</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1997</v>
+        <v>1984</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1723,40 +1723,40 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>tt0118617</t>
+          <t>tt0086837</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hercules</t>
+          <t>Nausicaä of the Valley of the Wind</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hercules</t>
+          <t>Kaze no tani no Naushika</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Action,Adventure,Animation</t>
+          <t>Adventure,Animation,Sci-Fi</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="F24" t="n">
-        <v>262238</v>
+        <v>187282</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1997</v>
+        <v>1984</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
@@ -1779,40 +1779,40 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>tt0119282</t>
+          <t>tt0087544</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Princess Mononoke</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mononoke-hime</t>
+          <t>Nineteen Eighty-Four</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Fantasy</t>
+          <t>Drama,Sci-Fi</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>8.300000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="F25" t="n">
-        <v>447841</v>
+        <v>82099</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1997</v>
+        <v>1984</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -1835,40 +1835,40 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>tt0119698</t>
+          <t>tt0087803</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A Bug's Life</t>
+          <t>Starman</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A Bug's Life</t>
+          <t>Starman</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Romance,Sci-Fi</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>321478</v>
+        <v>53971</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>1998</v>
+        <v>1984</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
@@ -1891,40 +1891,40 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>tt0120623</t>
+          <t>tt0088172</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chicken Run</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chicken Run</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Drama,Sci-Fi,Thriller</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="F27" t="n">
-        <v>216035</v>
+        <v>214145</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1933,7 +1933,7 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2000</v>
+        <v>1985</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
@@ -1947,36 +1947,36 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>tt0120630</t>
+          <t>tt0088846</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tarzan</t>
+          <t>Cocoon</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tarzan</t>
+          <t>Cocoon</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Comedy,Drama,Sci-Fi</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="F28" t="n">
-        <v>254112</v>
+        <v>70249</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1999</v>
+        <v>1985</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -2003,40 +2003,40 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>tt0120855</t>
+          <t>tt0088933</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>The Emperor's New Groove</t>
+          <t>Re-Animator</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The Emperor's New Groove</t>
+          <t>Re-Animator</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Comedy,Horror,Sci-Fi</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="F29" t="n">
-        <v>232344</v>
+        <v>73768</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2000</v>
+        <v>1985</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -2059,40 +2059,40 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>tt0120917</t>
+          <t>tt0089885</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Corpse Bride</t>
+          <t>The Return of the Living Dead</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Corpse Bride</t>
+          <t>The Return of the Living Dead</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Animation,Comedy,Drama</t>
+          <t>Comedy,Horror,Sci-Fi</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="F30" t="n">
-        <v>308655</v>
+        <v>72089</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2101,7 +2101,7 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2005</v>
+        <v>1985</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -2115,40 +2115,40 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>tt0121164</t>
+          <t>tt0089907</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>The Road to El Dorado</t>
+          <t>Weird Science</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The Road to El Dorado</t>
+          <t>Weird Science</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Comedy,Romance,Sci-Fi</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F31" t="n">
-        <v>111106</v>
+        <v>100384</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2000</v>
+        <v>1985</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2171,40 +2171,40 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>tt0138749</t>
+          <t>tt0090305</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Perfect Blue</t>
+          <t>Aliens</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pâfekuto burû</t>
+          <t>Aliens</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Animation,Crime,Drama</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="F32" t="n">
-        <v>102541</v>
+        <v>793386</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>EG</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2227,40 +2227,40 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>tt0156887</t>
+          <t>tt0090605</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>South Park: Bigger, Longer &amp; Uncut</t>
+          <t>The Fly</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>South Park: Bigger, Longer &amp; Uncut</t>
+          <t>The Fly</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Animation,Comedy,Fantasy</t>
+          <t>Drama,Horror,Sci-Fi</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="F33" t="n">
-        <v>218252</v>
+        <v>210113</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>XWW</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2269,7 +2269,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1999</v>
+        <v>1986</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2283,40 +2283,40 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>tt0158983</t>
+          <t>tt0091064</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Spirit: Stallion of the Cimarron</t>
+          <t>Short Circuit</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Spirit: Stallion of the Cimarron</t>
+          <t>Short Circuit</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Drama</t>
+          <t>Comedy,Family,Sci-Fi</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="F34" t="n">
-        <v>88054</v>
+        <v>67666</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>2002</v>
+        <v>1986</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2339,40 +2339,40 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>tt0166813</t>
+          <t>tt0091949</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Neon Genesis Evangelion: The End of Evangelion</t>
+          <t>The Running Man</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Shin seiki Evangelion Gekijô-ban: Air/Magokoro wo, kimi ni</t>
+          <t>The Running Man</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Action,Animation,Drama</t>
+          <t>Action,Sci-Fi,Thriller</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>8.1</v>
+        <v>6.6</v>
       </c>
       <c r="F35" t="n">
-        <v>67789</v>
+        <v>171884</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1997</v>
+        <v>1987</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2395,36 +2395,36 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>tt0169858</t>
+          <t>tt0093894</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Atlantis: The Lost Empire</t>
+          <t>They Live</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Atlantis: The Lost Empire</t>
+          <t>They Live</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Action,Adventure,Animation</t>
+          <t>Action,Horror,Sci-Fi</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="F36" t="n">
-        <v>138269</v>
+        <v>151210</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2001</v>
+        <v>1988</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2451,40 +2451,40 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>tt0230011</t>
+          <t>tt0096256</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Waking Life</t>
+          <t>Flatliners</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Waking Life</t>
+          <t>Flatliners</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Animation,Drama,Fantasy</t>
+          <t>Drama,Horror,Sci-Fi</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="F37" t="n">
-        <v>67819</v>
+        <v>95239</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2507,19 +2507,19 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>tt0243017</t>
+          <t>tt0099582</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cowboy Bebop: The Movie</t>
+          <t>Demolition Man</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cowboy Bebop: Tengoku no tobira</t>
+          <t>Demolition Man</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2529,18 +2529,18 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Action,Animation,Crime</t>
+          <t>Action,Sci-Fi,Thriller</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="F38" t="n">
-        <v>54536</v>
+        <v>198706</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>XWW</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2549,7 +2549,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2563,40 +2563,40 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>tt0275277</t>
+          <t>tt0106697</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>The Triplets of Belleville</t>
+          <t>Stargate</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Les triplettes de Belleville</t>
+          <t>Stargate</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>57776</v>
+        <v>209649</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2003</v>
+        <v>1994</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2619,40 +2619,40 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>tt0286244</t>
+          <t>tt0111282</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Wallace &amp; Gromit: The Curse of the Were-Rabbit</t>
+          <t>Strange Days</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>The Curse of the Were-Rabbit</t>
+          <t>Strange Days</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>145</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Crime,Drama,Sci-Fi</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="F40" t="n">
-        <v>149119</v>
+        <v>79929</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2675,40 +2675,40 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>tt0312004</t>
+          <t>tt0114558</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Coraline</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Coraline</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Animation,Drama,Family</t>
+          <t>Drama,Mystery,Sci-Fi</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="F41" t="n">
-        <v>277631</v>
+        <v>299098</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>EG</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2731,36 +2731,36 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>tt0327597</t>
+          <t>tt0118884</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Howl's Moving Castle</t>
+          <t>Event Horizon</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hauru no ugoku shiro</t>
+          <t>Event Horizon</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Family</t>
+          <t>Horror,Sci-Fi,Thriller</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="F42" t="n">
-        <v>468304</v>
+        <v>202438</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2787,40 +2787,40 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>tt0347149</t>
+          <t>tt0119081</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>The Cat Returns</t>
+          <t>Gattaca</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Neko no ongaeshi</t>
+          <t>Gattaca</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Drama,Sci-Fi,Thriller</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="F43" t="n">
-        <v>67023</v>
+        <v>330441</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2829,7 +2829,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
@@ -2843,40 +2843,40 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>tt0347618</t>
+          <t>tt0119177</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Final Fantasy VII: Advent Children</t>
+          <t>Starship Troopers</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fainaru fantajî sebun adobento chirudoren</t>
+          <t>Starship Troopers</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Action,Adventure,Animation</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="F44" t="n">
-        <v>58642</v>
+        <v>329456</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>XWW</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2885,7 +2885,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2005</v>
+        <v>1997</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
@@ -2899,40 +2899,40 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>tt0385700</t>
+          <t>tt0120201</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Meet the Robinsons</t>
+          <t>The X Files</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Meet the Robinsons</t>
+          <t>The X Files</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Drama,Mystery,Sci-Fi</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>114580</v>
+        <v>111425</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2941,7 +2941,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2955,40 +2955,40 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>tt0396555</t>
+          <t>tt0120902</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bolt</t>
+          <t>X-Men</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Bolt</t>
+          <t>X-Men</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="F46" t="n">
-        <v>234754</v>
+        <v>664736</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -3011,40 +3011,40 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>tt0397892</t>
+          <t>tt0120903</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A Scanner Darkly</t>
+          <t>eXistenZ</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>A Scanner Darkly</t>
+          <t>eXistenZ</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Animation,Comedy,Crime</t>
+          <t>Horror,Mystery,Sci-Fi</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="F47" t="n">
-        <v>118636</v>
+        <v>109104</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -3053,7 +3053,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -3067,36 +3067,36 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>tt0405296</t>
+          <t>tt0120907</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ice Age: The Meltdown</t>
+          <t>Cube</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ice Age: The Meltdown</t>
+          <t>Cube</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Horror,Mystery,Sci-Fi</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="F48" t="n">
-        <v>302942</v>
+        <v>252430</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -3109,7 +3109,7 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -3123,40 +3123,40 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>tt0438097</t>
+          <t>tt0123755</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Horton Hears a Who!</t>
+          <t>Open Your Eyes</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Horton Hears a Who!</t>
+          <t>Abre los ojos</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Drama,Mystery,Sci-Fi</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="F49" t="n">
-        <v>152836</v>
+        <v>74407</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -3179,40 +3179,40 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>tt0451079</t>
+          <t>tt0125659</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Enchanted</t>
+          <t>The Faculty</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Enchanted</t>
+          <t>The Faculty</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Horror,Mystery,Sci-Fi</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="F50" t="n">
-        <v>220841</v>
+        <v>139142</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3235,40 +3235,40 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>tt0461770</t>
+          <t>tt0133751</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>The Simpsons Movie</t>
+          <t>The Thirteenth Floor</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>The Simpsons Movie</t>
+          <t>The Thirteenth Floor</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Mystery,Sci-Fi,Thriller</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>354793</v>
+        <v>78764</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -3291,40 +3291,40 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>tt0462538</t>
+          <t>tt0139809</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>Bicentennial Man</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>Bicentennial Man</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Action,Adventure,Animation</t>
+          <t>Drama,Romance,Sci-Fi</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="F52" t="n">
-        <v>150876</v>
+        <v>126920</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3347,40 +3347,40 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>tt0472033</t>
+          <t>tt0182789</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>The Croods</t>
+          <t>Children of Men</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>The Croods</t>
+          <t>Children of Men</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Drama,Sci-Fi,Thriller</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="F53" t="n">
-        <v>237749</v>
+        <v>539887</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
@@ -3403,40 +3403,40 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>tt0481499</t>
+          <t>tt0206634</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>The Princess and the Frog</t>
+          <t>2046</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>The Princess and the Frog</t>
+          <t>2046</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Drama,Romance,Sci-Fi</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="F54" t="n">
-        <v>172951</v>
+        <v>62824</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -3445,7 +3445,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -3459,40 +3459,40 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>tt0780521</t>
+          <t>tt0212712</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>The Boxtrolls</t>
+          <t>A.I. Artificial Intelligence</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>The Boxtrolls</t>
+          <t>A.I. Artificial Intelligence</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Adventure,Drama,Sci-Fi</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="F55" t="n">
-        <v>62616</v>
+        <v>327839</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2014</v>
+        <v>2001</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -3515,36 +3515,36 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>tt0787474</t>
+          <t>tt0212720</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Persepolis</t>
+          <t>Signs</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Persepolis</t>
+          <t>Signs</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Animation,Biography,Drama</t>
+          <t>Drama,Mystery,Sci-Fi</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="F56" t="n">
-        <v>101631</v>
+        <v>396098</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
@@ -3571,40 +3571,40 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>tt0808417</t>
+          <t>tt0286106</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>The Girl Who Leapt Through Time</t>
+          <t>28 Days Later</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Toki o kakeru shôjo</t>
+          <t>28 Days Later</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Drama,Horror,Sci-Fi</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="F57" t="n">
-        <v>72246</v>
+        <v>458109</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3613,7 +3613,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3627,40 +3627,40 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>tt0808506</t>
+          <t>tt0289043</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Hotel Transylvania</t>
+          <t>The Butterfly Effect</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Hotel Transylvania</t>
+          <t>The Butterfly Effect</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Drama,Sci-Fi,Thriller</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="F58" t="n">
-        <v>290618</v>
+        <v>532086</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3683,40 +3683,40 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>tt0837562</t>
+          <t>tt0289879</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Paprika</t>
+          <t>X2: X-Men United</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Papurika</t>
+          <t>X2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Animation,Drama,Fantasy</t>
+          <t>Action,Sci-Fi,Thriller</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="F59" t="n">
-        <v>101045</v>
+        <v>589831</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3725,7 +3725,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3739,40 +3739,40 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>tt0851578</t>
+          <t>tt0290334</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Mr. Peabody &amp; Sherman</t>
+          <t>Eternal Sunshine of the Spotless Mind</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mr. Peabody &amp; Sherman</t>
+          <t>Eternal Sunshine of the Spotless Mind</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Drama,Romance,Sci-Fi</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>79853</v>
+        <v>1109205</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3795,40 +3795,40 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>tt0864835</t>
+          <t>tt0338013</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Ponyo</t>
+          <t>The Manchurian Candidate</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Gake no ue no Ponyo</t>
+          <t>The Manchurian Candidate</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Drama,Mystery,Sci-Fi</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="F61" t="n">
-        <v>170115</v>
+        <v>118596</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3837,7 +3837,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
@@ -3851,40 +3851,40 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>tt0876563</t>
+          <t>tt0368008</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Mary and Max</t>
+          <t>X-Men: The Last Stand</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mary and Max.</t>
+          <t>X-Men: The Last Stand</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Animation,Comedy,Drama</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>8.1</v>
+        <v>6.6</v>
       </c>
       <c r="F62" t="n">
-        <v>191700</v>
+        <v>553294</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>EG</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3893,7 +3893,7 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
@@ -3907,40 +3907,40 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>tt0978762</t>
+          <t>tt0376994</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>The Adventures of Tintin</t>
+          <t>Serenity</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>The Adventures of Tintin</t>
+          <t>Serenity</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Action,Adventure,Animation</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="F63" t="n">
-        <v>246650</v>
+        <v>308566</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3949,7 +3949,7 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2011</v>
+        <v>2005</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
@@ -3963,40 +3963,40 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>tt0983193</t>
+          <t>tt0379786</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>5 Centimeters per Second</t>
+          <t>G.O.R.A.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Byôsoku 5 senchimêtoru</t>
+          <t>G.O.R.A.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Animation,Drama,Family</t>
+          <t>Adventure,Comedy,Sci-Fi</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
-        <v>65946</v>
+        <v>68326</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>XWW</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -4019,40 +4019,40 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>tt0983213</t>
+          <t>tt0384116</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A Christmas Carol</t>
+          <t>Idiocracy</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>A Christmas Carol</t>
+          <t>Idiocracy</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Adventure,Comedy,Sci-Fi</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="F65" t="n">
-        <v>132089</v>
+        <v>193387</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -4061,7 +4061,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -4075,40 +4075,40 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>tt1067106</t>
+          <t>tt0387808</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Demon Slayer: Kimetsu no Yaiba - The Movie: Mugen Train</t>
+          <t>Primer</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Gekijôban Kimetsu no yaiba: Mugen Ressha hen</t>
+          <t>Primer</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Action,Adventure,Animation</t>
+          <t>Drama,Sci-Fi,Thriller</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>8.199999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="F66" t="n">
-        <v>79271</v>
+        <v>116270</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -4117,7 +4117,7 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2020</v>
+        <v>2004</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -4131,40 +4131,40 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>tt11032374</t>
+          <t>tt0390384</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Frankenweenie</t>
+          <t>The Island</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Frankenweenie</t>
+          <t>The Island</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Animation,Comedy,Drama</t>
+          <t>Action,Sci-Fi,Thriller</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="F67" t="n">
-        <v>120556</v>
+        <v>331761</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -4187,36 +4187,36 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>tt1142977</t>
+          <t>tt0399201</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>The Witcher: Nightmare of the Wolf</t>
+          <t>John Carter</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>The Witcher: Nightmare of the Wolf</t>
+          <t>John Carter</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Action,Adventure,Animation</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="F68" t="n">
-        <v>51767</v>
+        <v>290226</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -4243,36 +4243,36 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>tt11657662</t>
+          <t>tt0401729</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Waltz with Bashir</t>
+          <t>District B13</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Vals Im Bashir</t>
+          <t>Banlieue 13</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Animation,Biography,Documentary</t>
+          <t>Action,Crime,Sci-Fi</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="F69" t="n">
-        <v>61215</v>
+        <v>74898</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -4299,40 +4299,40 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>tt1185616</t>
+          <t>tt0414852</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Brave</t>
+          <t>Terminator Salvation</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Brave</t>
+          <t>Terminator Salvation</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Action,Adventure,Animation</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="F70" t="n">
-        <v>453668</v>
+        <v>382437</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -4355,40 +4355,40 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>tt1217209</t>
+          <t>tt0438488</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Legend of the Guardians: The Owls of Ga'Hoole</t>
+          <t>Slither</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Legend of the Guardians: The Owls of Ga'Hoole</t>
+          <t>Slither</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Action,Adventure,Animation</t>
+          <t>Comedy,Horror,Sci-Fi</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="F71" t="n">
-        <v>88781</v>
+        <v>90767</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4397,7 +4397,7 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -4411,40 +4411,40 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>tt1219342</t>
+          <t>tt0439815</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Madagascar 3: Europe's Most Wanted</t>
+          <t>Deja Vu</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Madagascar 3: Europe's Most Wanted</t>
+          <t>Deja Vu</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Action,Crime,Sci-Fi</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="F72" t="n">
-        <v>203554</v>
+        <v>333106</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4453,7 +4453,7 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
@@ -4467,40 +4467,40 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>tt1277953</t>
+          <t>tt0453467</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>X-Men Origins: Wolverine</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Luca</t>
+          <t>X-Men Origins: Wolverine</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Action,Sci-Fi</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="F73" t="n">
-        <v>203700</v>
+        <v>547848</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2021</v>
+        <v>2009</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -4523,40 +4523,40 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>tt12801262</t>
+          <t>tt0458525</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Arthur Christmas</t>
+          <t>28 Weeks Later</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Arthur Christmas</t>
+          <t>28 Weeks Later</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Horror,Sci-Fi</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="F74" t="n">
-        <v>68338</v>
+        <v>300505</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4565,7 +4565,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -4579,40 +4579,40 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>tt1430607</t>
+          <t>tt0463854</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>The Host</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Gwoemul</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Drama,Horror,Sci-Fi</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="F75" t="n">
-        <v>255739</v>
+        <v>135694</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>EG</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -4635,40 +4635,40 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>tt1436562</t>
+          <t>tt0468492</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Rise of the Guardians</t>
+          <t>Timecrimes</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Rise of the Guardians</t>
+          <t>Los cronocrímenes</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Action,Adventure,Animation</t>
+          <t>Horror,Mystery,Sci-Fi</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="F76" t="n">
-        <v>197168</v>
+        <v>70532</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>XWW</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4677,7 +4677,7 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -4691,40 +4691,40 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>tt1446192</t>
+          <t>tt0480669</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Guillermo del Toro's Pinocchio</t>
+          <t>The Mist</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Guillermo del Toro's Pinocchio</t>
+          <t>The Mist</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Drama</t>
+          <t>Horror,Sci-Fi,Thriller</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="F77" t="n">
-        <v>117419</v>
+        <v>351135</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4733,7 +4733,7 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2022</v>
+        <v>2007</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -4747,40 +4747,40 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>tt1488589</t>
+          <t>tt0884328</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>The Secret World of Arrietty</t>
+          <t>Cloverfield</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Karigurashi no Arietti</t>
+          <t>Cloverfield</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Drama</t>
+          <t>Action,Horror,Sci-Fi</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>108300</v>
+        <v>428532</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4789,7 +4789,7 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
@@ -4803,36 +4803,36 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>tt1568921</t>
+          <t>tt1060277</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Elemental</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Elemental</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Adventure,Comedy,Sci-Fi</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="F79" t="n">
-        <v>141926</v>
+        <v>270721</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2023</v>
+        <v>2011</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -4859,40 +4859,40 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>tt15789038</t>
+          <t>tt1092026</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ParaNorman</t>
+          <t>Titane</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ParaNorman</t>
+          <t>Titane</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Drama,Horror,Sci-Fi</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="F80" t="n">
-        <v>112479</v>
+        <v>60040</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>EG</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4901,7 +4901,7 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -4915,40 +4915,40 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>tt1623288</t>
+          <t>tt10944760</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>How to Train Your Dragon 2</t>
+          <t>Nope</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>How to Train Your Dragon 2</t>
+          <t>Nope</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Action,Adventure,Animation</t>
+          <t>Horror,Mystery,Sci-Fi</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="F81" t="n">
-        <v>373526</v>
+        <v>289113</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4957,7 +4957,7 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>2014</v>
+        <v>2022</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -4971,40 +4971,40 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>tt1646971</t>
+          <t>tt10954984</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>The Little Prince</t>
+          <t>Don't Look Up</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Le petit prince</t>
+          <t>Don't Look Up</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Drama</t>
+          <t>Comedy,Drama,Sci-Fi</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="F82" t="n">
-        <v>67919</v>
+        <v>623748</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -5013,7 +5013,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -5027,40 +5027,40 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>tt1754656</t>
+          <t>tt11286314</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>From Up on Poppy Hill</t>
+          <t>Totally Killer</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Kokuriko-zaka kara</t>
+          <t>Totally Killer</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Animation,Comedy,Drama</t>
+          <t>Comedy,Horror,Sci-Fi</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="F83" t="n">
-        <v>54383</v>
+        <v>59142</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>XWW</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -5069,7 +5069,7 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2011</v>
+        <v>2023</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -5083,40 +5083,40 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>tt1798188</t>
+          <t>tt11426232</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Song of the Sea</t>
+          <t>Triangle</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Song of the Sea</t>
+          <t>Triangle</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Drama</t>
+          <t>Fantasy,Mystery,Sci-Fi</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="F84" t="n">
-        <v>64519</v>
+        <v>135189</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -5125,7 +5125,7 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -5139,40 +5139,40 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>tt1865505</t>
+          <t>tt1187064</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Nimona</t>
+          <t>Venom</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Nimona</t>
+          <t>Venom</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Action,Adventure,Animation</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="F85" t="n">
-        <v>53887</v>
+        <v>561438</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -5195,40 +5195,40 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>tt19500164</t>
+          <t>tt1270797</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>The Wind Rises</t>
+          <t>X-Men: First Class</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Kaze tachinu</t>
+          <t>X: First Class</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Animation,Biography,Drama</t>
+          <t>Action,Sci-Fi</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="F86" t="n">
-        <v>103079</v>
+        <v>738541</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5237,7 +5237,7 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -5251,40 +5251,40 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>tt2013293</t>
+          <t>tt1270798</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Wolf Children</t>
+          <t>Perfect Sense</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ôkami kodomo no Ame to Yuki</t>
+          <t>Perfect Sense</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Animation,Drama,Family</t>
+          <t>Drama,Romance,Sci-Fi</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>8.1</v>
+        <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>51017</v>
+        <v>64882</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>XWW</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -5293,7 +5293,7 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -5307,40 +5307,40 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>tt2140203</t>
+          <t>tt1439572</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Inside Out 2</t>
+          <t>Indiana Jones and the Dial of Destiny</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Inside Out 2</t>
+          <t>Indiana Jones and the Dial of Destiny</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="F88" t="n">
-        <v>181608</v>
+        <v>211757</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -5349,7 +5349,7 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -5363,36 +5363,36 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>tt22022452</t>
+          <t>tt1462764</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>The Book of Life</t>
+          <t>Melancholia</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>The Book of Life</t>
+          <t>Melancholia</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Drama,Sci-Fi</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="F89" t="n">
-        <v>79993</v>
+        <v>199530</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
@@ -5419,40 +5419,40 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>tt2262227</t>
+          <t>tt1527186</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Finding Dory</t>
+          <t>In Time</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Finding Dory</t>
+          <t>In Time</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Action,Sci-Fi,Thriller</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="F90" t="n">
-        <v>313086</v>
+        <v>458584</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5461,7 +5461,7 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -5475,40 +5475,40 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>tt2277860</t>
+          <t>tt1637688</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Frozen</t>
+          <t>Super 8</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Frozen</t>
+          <t>Super 8</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Action,Sci-Fi,Thriller</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>677049</v>
+        <v>371433</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -5531,40 +5531,40 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>tt2294629</t>
+          <t>tt1650062</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Coco</t>
+          <t>X-Men: Days of Future Past</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Coco</t>
+          <t>X-Men: Days of Future Past</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Drama</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="F92" t="n">
-        <v>624429</v>
+        <v>760963</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -5573,7 +5573,7 @@
         </is>
       </c>
       <c r="I92" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -5587,40 +5587,40 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>tt2380307</t>
+          <t>tt1877832</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>How to Train Your Dragon: The Hidden World</t>
+          <t>Self/less</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>How to Train Your Dragon: The Hidden World</t>
+          <t>Self/less</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Action,Adventure,Animation</t>
+          <t>Action,Mystery,Sci-Fi</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="F93" t="n">
-        <v>158012</v>
+        <v>105102</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -5629,7 +5629,7 @@
         </is>
       </c>
       <c r="I93" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
@@ -5643,40 +5643,40 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>tt2386490</t>
+          <t>tt2140379</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Anomalisa</t>
+          <t>Spider-Man: Homecoming</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Anomalisa</t>
+          <t>Spider-Man: Homecoming</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Animation,Comedy,Drama</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="F94" t="n">
-        <v>76451</v>
+        <v>740216</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -5699,40 +5699,40 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>tt2401878</t>
+          <t>tt2250912</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>The Peanuts Movie</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>The Peanuts Movie</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Comedy,Drama,Sci-Fi</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>7</v>
+        <v>8.1</v>
       </c>
       <c r="F95" t="n">
-        <v>50802</v>
+        <v>206436</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -5741,7 +5741,7 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -5755,40 +5755,40 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>tt2452042</t>
+          <t>tt2338151</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>The Tale of The Princess Kaguya</t>
+          <t>Midnight Special</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Kaguya-hime no monogatari</t>
+          <t>Midnight Special</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Animation,Drama,Family</t>
+          <t>Drama,Mystery,Sci-Fi</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="F96" t="n">
-        <v>56497</v>
+        <v>85001</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>XWW</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -5797,7 +5797,7 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -5811,40 +5811,40 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>tt2576852</t>
+          <t>tt2649554</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>The Garden of Words</t>
+          <t>Time Lapse</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Koto no ha no niwa</t>
+          <t>Time Lapse</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Animation,Drama,Romance</t>
+          <t>Mystery,Sci-Fi,Thriller</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="F97" t="n">
-        <v>54987</v>
+        <v>50481</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5853,7 +5853,7 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -5867,36 +5867,36 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>tt2591814</t>
+          <t>tt2669336</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>The Croods: A New Age</t>
+          <t>Bird Box</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>The Croods: A New Age</t>
+          <t>Bird Box</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Horror,Mystery,Sci-Fi</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="F98" t="n">
-        <v>55480</v>
+        <v>398546</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5909,7 +5909,7 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
@@ -5923,40 +5923,40 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>tt2850386</t>
+          <t>tt2737304</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Coherence</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Soul</t>
+          <t>Coherence</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Horror,Mystery,Sci-Fi</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="F99" t="n">
-        <v>396114</v>
+        <v>153779</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -5979,19 +5979,19 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>tt2948372</t>
+          <t>tt2866360</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Encanto</t>
+          <t>The Wild Robot</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Encanto</t>
+          <t>The Wild Robot</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6001,18 +6001,18 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Animation,Comedy,Family</t>
+          <t>Animation,Sci-Fi</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>7.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>273757</v>
+        <v>90060</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>XWW</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -6035,40 +6035,40 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>tt2953050</t>
+          <t>tt29623480</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>The Wild Robot</t>
+          <t>Batman v Superman: Dawn of Justice</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>The Wild Robot</t>
+          <t>Batman v Superman: Dawn of Justice</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Animation,Sci-Fi</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>8.300000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="F101" t="n">
-        <v>90060</v>
+        <v>762344</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>XWW</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -6077,7 +6077,7 @@
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
@@ -6091,40 +6091,40 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>tt29623480</t>
+          <t>tt2975590</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Loving Vincent</t>
+          <t>X-Men: Apocalypse</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Loving Vincent</t>
+          <t>X-Men: Apocalypse</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Animation,Drama,Mystery</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="F102" t="n">
-        <v>65102</v>
+        <v>472861</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -6133,7 +6133,7 @@
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -6147,40 +6147,40 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>tt3262342</t>
+          <t>tt3385516</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>When Marnie Was There</t>
+          <t>Finch</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Omoide no Mânî</t>
+          <t>Finch</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>115</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Animation,Drama,Family</t>
+          <t>Adventure,Drama,Sci-Fi</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="F103" t="n">
-        <v>50217</v>
+        <v>101227</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -6189,7 +6189,7 @@
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -6203,40 +6203,40 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>tt3398268</t>
+          <t>tt3420504</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Sing</t>
+          <t>The Lobster</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Sing</t>
+          <t>The Lobster</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Animation,Comedy,Family</t>
+          <t>Drama,Romance,Sci-Fi</t>
         </is>
       </c>
       <c r="E104" t="n">
         <v>7.1</v>
       </c>
       <c r="F104" t="n">
-        <v>197985</v>
+        <v>310341</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -6259,40 +6259,40 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>tt3470600</t>
+          <t>tt3464902</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Moana</t>
+          <t>Rogue One: A Star Wars Story</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Moana</t>
+          <t>Rogue One</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="F105" t="n">
-        <v>396981</v>
+        <v>702135</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -6315,36 +6315,36 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>tt3521164</t>
+          <t>tt3748528</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Puss in Boots: The Last Wish</t>
+          <t>Solo: A Star Wars Story</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Puss in Boots: The Last Wish</t>
+          <t>Solo: A Star Wars Story</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Action,Adventure,Animation</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="F106" t="n">
-        <v>191425</v>
+        <v>388060</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -6371,40 +6371,40 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>tt3915174</t>
+          <t>tt3778644</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>The Lego Batman Movie</t>
+          <t>The Endless</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>The Lego Batman Movie</t>
+          <t>The Endless</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>111</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Action,Adventure,Animation</t>
+          <t>Horror,Mystery,Sci-Fi</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="F107" t="n">
-        <v>178391</v>
+        <v>51614</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -6427,36 +6427,36 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>tt4116284</t>
+          <t>tt3986820</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Kubo and the Two Strings</t>
+          <t>Overlord</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Kubo and the Two Strings</t>
+          <t>Overlord</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Action,Adventure,Animation</t>
+          <t>Action,Horror,Sci-Fi</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="F108" t="n">
-        <v>140973</v>
+        <v>109383</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -6483,40 +6483,40 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>tt4302938</t>
+          <t>tt4530422</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Frozen II</t>
+          <t>Bumblebee</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Frozen II</t>
+          <t>Bumblebee</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>114</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Action,Adventure,Sci-Fi</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="F109" t="n">
-        <v>201684</v>
+        <v>194312</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -6539,40 +6539,40 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>tt4520988</t>
+          <t>tt4701182</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Storks</t>
+          <t>A Quiet Place</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Storks</t>
+          <t>A Quiet Place</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Adventure,Animation,Comedy</t>
+          <t>Drama,Horror,Sci-Fi</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="F110" t="n">
-        <v>68984</v>
+        <v>614142</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
@@ -6595,40 +6595,40 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>tt4624424</t>
+          <t>tt6644200</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Spider-Man: Into the Spider-Verse</t>
+          <t>A Quiet Place Part II</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Spider-Man: Into the Spider-Verse</t>
+          <t>A Quiet Place Part II</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Action,Adventure,Animation</t>
+          <t>Drama,Horror,Sci-Fi</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="F111" t="n">
-        <v>703830</v>
+        <v>294223</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -6637,7 +6637,7 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -6651,1071 +6651,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>tt4633694</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Klaus</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Klaus</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Adventure,Animation,Comedy</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="F112" t="n">
-        <v>198697</v>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>HK</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
-        <v>2019</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>\N</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>movie</t>
-        </is>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>tt4729430</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Isle of Dogs</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Isle of Dogs</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Adventure,Animation,Comedy</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="F113" t="n">
-        <v>195878</v>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>NZ</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
-        <v>2018</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>\N</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>movie</t>
-        </is>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>tt5104604</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Raya and the Last Dragon</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Raya and the Last Dragon</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Action,Adventure,Animation</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F114" t="n">
-        <v>177019</v>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>MY</t>
-        </is>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>2021</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>\N</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>movie</t>
-        </is>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>tt5109280</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Your Name.</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Kimi no na wa.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Animation,Drama,Fantasy</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="F115" t="n">
-        <v>340364</v>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>HK</t>
-        </is>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
-        <v>2016</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>\N</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>movie</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>tt5311514</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>A Silent Voice: The Movie</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Koe no katachi</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Animation,Drama</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F116" t="n">
-        <v>110080</v>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
-        <v>2016</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>\N</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>movie</t>
-        </is>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>tt5323662</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Spies in Disguise</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Spies in Disguise</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Adventure,Animation,Comedy</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F117" t="n">
-        <v>58817</v>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
-        <v>2019</v>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>\N</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>movie</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>tt5814534</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Ralph Breaks the Internet</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Ralph Breaks the Internet</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>Adventure,Animation,Comedy</t>
-        </is>
-      </c>
-      <c r="E118" t="n">
-        <v>7</v>
-      </c>
-      <c r="F118" t="n">
-        <v>189981</v>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>NZ</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
-        <v>2018</v>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>\N</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>movie</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>tt5848272</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Sing 2</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Sing 2</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>Adventure,Animation,Comedy</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F119" t="n">
-        <v>92477</v>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>IE</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
-        <v>2021</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>\N</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>movie</t>
-        </is>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>tt6467266</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>The Boy and the Heron</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Kimitachi wa dô ikiru ka</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Adventure,Animation,Drama</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F120" t="n">
-        <v>81575</v>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>IE</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
-        <v>2023</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>\N</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>movie</t>
-        </is>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>tt6587046</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>The Super Mario Bros. Movie</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>The Super Mario Bros. Movie</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Adventure,Animation,Comedy</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
-        <v>7</v>
-      </c>
-      <c r="F121" t="n">
-        <v>254062</v>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>NZ</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
-        <v>2023</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>\N</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>movie</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>tt6718170</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Onward</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Onward</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Adventure,Animation,Comedy</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F122" t="n">
-        <v>175670</v>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>NZ</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
-        <v>2020</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>\N</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>movie</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>tt7146812</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>The Mitchells vs. the Machines</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>The Mitchells vs the Machines</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Adventure,Animation,Comedy</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F123" t="n">
-        <v>131455</v>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>TH</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>2021</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>\N</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>movie</t>
-        </is>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>tt7979580</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Turning Red</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Turning Red</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Adventure,Animation,Comedy</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v>7</v>
-      </c>
-      <c r="F124" t="n">
-        <v>160208</v>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
-        <v>2022</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>\N</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>movie</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>tt8097030</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>The Bad Guys</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>The Bad Guys</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>Adventure,Animation,Comedy</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="F125" t="n">
-        <v>64027</v>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>NZ</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
-        <v>2022</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>\N</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>movie</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>tt8115900</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Teenage Mutant Ninja Turtles: Mutant Mayhem</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Teenage Mutant Ninja Turtles: Mutant Mayhem</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>Action,Adventure,Animation</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F126" t="n">
-        <v>70096</v>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="I126" t="n">
-        <v>2023</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>\N</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>movie</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>tt8589698</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>DC League of Super-Pets</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>DC League of Super-Pets</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Action,Adventure,Animation</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="F127" t="n">
-        <v>77491</v>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>IE</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="I127" t="n">
-        <v>2022</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>\N</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>movie</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>tt8912936</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>The Sea Beast</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>The Sea Beast</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>Action,Adventure,Animation</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>7</v>
-      </c>
-      <c r="F128" t="n">
-        <v>60464</v>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>PH</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="I128" t="n">
-        <v>2022</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>\N</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>movie</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>tt9288046</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Spider-Man: Across the Spider-Verse</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Spider-Man: Across the Spider-Verse</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Action,Adventure,Animation</t>
-        </is>
-      </c>
-      <c r="E129" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="F129" t="n">
-        <v>419887</v>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>HK</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="I129" t="n">
-        <v>2023</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>\N</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>movie</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>tt9362722</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Weathering with You</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Tenki no ko</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Animation,Drama,Fantasy</t>
-        </is>
-      </c>
-      <c r="E130" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F130" t="n">
-        <v>59819</v>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="I130" t="n">
-        <v>2019</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>\N</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>movie</t>
-        </is>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>tt9426210</t>
+          <t>tt8332922</t>
         </is>
       </c>
     </row>
